--- a/biology/Mycologie/Amanita_zambiana/Amanita_zambiana.xlsx
+++ b/biology/Mycologie/Amanita_zambiana/Amanita_zambiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amanita zambiana, de son nom vernaculaire, Caesar de Zambie[1] ou plus localement Tente, est une espèce de champignons basidiomycètes comestibles[réf. nécessaire] du genre Amanita dans la famille des Amanitaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amanita zambiana, de son nom vernaculaire, Caesar de Zambie ou plus localement Tente, est une espèce de champignons basidiomycètes comestibles[réf. nécessaire] du genre Amanita dans la famille des Amanitaceae.
 Elle est classée dans la sous-section des Caesareae par Singer.
 </t>
         </is>
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nom binominal
-Amanita zambiana Pegler &amp; Piearce (1980)
-Synonymes
-C'est peut-être un synonyme dAmanita loosii Beeli, initialement décrite du Congo, mais cette dernière est décrite comme étant entièrement blanche.
+          <t>Nom binominal</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amanita zambiana Pegler &amp; Piearce (1980)
 </t>
         </is>
       </c>
@@ -543,10 +558,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est peut-être un synonyme dAmanita loosii Beeli, initialement décrite du Congo, mais cette dernière est décrite comme étant entièrement blanche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amanita_zambiana</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanita_zambiana</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hyménophore (chapeau) d'Amanita zambiana qui mesure de 100 à 250 mm, est globuleux à ovoïde quand il est jeune, et en expansion s'aplatit gardant une marge recourbée. Sans être umboné, il n'est ni visqueux, non appendiculé, et présente une marge striée ou pectinée. 
 L'hyménophore est brun olivacé à son centre, lorsqu'il grandit, devient progressivement plus pâle en direction de la marge, et se présente franchement blanc à la marge lorsqu'il est adulte. 
@@ -558,31 +612,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Amanita_zambiana</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Amanita_zambiana</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce a été décrite initialement en provenance de Zambie et est commun dans la saison en Afrique centrale, Elle est vendue sur les marchés locaux
 </t>
